--- a/data/trans_dic/P5_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de azotea en su vivienda</t>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>29,82%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,76; 43,3</t>
+          <t>17,7; 49,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,51; 56,12</t>
+          <t>15,31; 48,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 34,32</t>
+          <t>15,64; 41,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 33,16</t>
+          <t>15,66; 41,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 35,85</t>
+          <t>20,94; 41,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 41,7</t>
+          <t>19,43; 41,41</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>26,72%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 31,47</t>
+          <t>20,47; 34,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,34; 32,07</t>
+          <t>21,65; 36,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,3; 31,19</t>
+          <t>20,52; 33,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 30,21</t>
+          <t>19,5; 32,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,67; 29,96</t>
+          <t>22,07; 31,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,67</t>
+          <t>21,96; 31,91</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 22,31</t>
+          <t>10,99; 24,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 21,88</t>
+          <t>10,83; 24,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 26,11</t>
+          <t>18,79; 32,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 28,15</t>
+          <t>19,09; 33,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,79</t>
+          <t>17,11; 26,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 23,65</t>
+          <t>17,11; 26,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,25; 29,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 27,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 27,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,56; 26,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19,62; 29,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,97; 30,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 30,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21,02; 30,01</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22,24; 28,82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22,36; 28,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34978</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>41793</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32148</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39125</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67126</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>80918</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18292; 51370</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19731; 62550</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18422; 48724</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22312; 59248</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>46313; 92668</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52735; 112361</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>98487</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121318</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>103016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>117527</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>201504</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>238845</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>74924; 127276</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>92995; 157169</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80176; 131187</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>90582; 149438</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>167002; 240424</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>196352; 285228</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48985</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56940</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>89878</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>107082</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>138863</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>164022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31426; 68698</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36037; 80149</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67572; 117271</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81767; 141619</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>110452; 170064</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>130288; 200980</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>182450</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>220051</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>225043</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>263734</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>407493</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>483785</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>148155; 224378</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>177949; 270097</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>188315; 264234</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>217625; 310666</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>360969; 467777</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>430713; 552897</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>